--- a/doc/超级地产富翁_地产大亨/map_超级电产富翁_地产大亨.xlsx
+++ b/doc/超级地产富翁_地产大亨/map_超级电产富翁_地产大亨.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FDDB8-0B66-44E3-B233-64377C941F51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1ADA47-97E2-4CF3-900B-6F9431D0A500}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,8 +718,8 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/超级地产富翁_地产大亨/map_超级电产富翁_地产大亨.xlsx
+++ b/doc/超级地产富翁_地产大亨/map_超级电产富翁_地产大亨.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1ADA47-97E2-4CF3-900B-6F9431D0A500}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DAD3A-E9F4-48B4-8B06-5EE69ABCDE06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拾到300元。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,6 +377,10 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,8 +718,8 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1758,10 +1758,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -1853,67 +1853,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1934,67 +1934,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/doc/超级地产富翁_地产大亨/map_超级电产富翁_地产大亨.xlsx
+++ b/doc/超级地产富翁_地产大亨/map_超级电产富翁_地产大亨.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DAD3A-E9F4-48B4-8B06-5EE69ABCDE06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB3B2F3-649F-422F-B5A3-1DE19BD7BA31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,6 +377,10 @@
   </si>
   <si>
     <t>公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,8 +718,8 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,31 +740,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -776,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
@@ -784,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
         <v>3500</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -920,10 +920,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1001,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1">
         <v>4000</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1056,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1">
         <v>3000</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -1192,10 +1192,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1238,7 +1238,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1">
         <v>3500</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1293,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -1328,10 +1328,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1339,7 +1339,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -1374,7 +1374,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -1409,10 +1409,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="1">
         <v>3000</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1440,10 +1440,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -1486,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -1521,10 +1521,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -1567,7 +1567,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" s="1">
         <v>3500</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -1622,7 +1622,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
         <v>5</v>
@@ -1657,7 +1657,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H35" s="1">
         <v>3000</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -1712,10 +1712,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1723,7 +1723,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <v>6</v>
@@ -1758,10 +1758,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -1769,7 +1769,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -1804,7 +1804,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -1853,67 +1853,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1934,67 +1934,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/doc/超级地产富翁_地产大亨/map_超级电产富翁_地产大亨.xlsx
+++ b/doc/超级地产富翁_地产大亨/map_超级电产富翁_地产大亨.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB3B2F3-649F-422F-B5A3-1DE19BD7BA31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58FC136-C1EB-4191-A088-858C3D677EDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大连</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,195 +188,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大洋运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当任何人走到运气和新闻时，你获得500元奖励。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污水处理厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取500元，若对方每拥有3块地产，额外收取500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取1张新闻卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取1张运气卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过时领取奖励4000元，若刚好到达起点，可将自己任意一处地产升一级（仍需支付升级费用）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当玩家升级地产时，获得500元。当任意玩家到建筑公司时，可将一处地产升一级（需支付升级费用）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取500元，若对方拥有1级/2级/3级地产，额外收取500/1000/1500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得500元，然后额外获得你拥有投资项目数量*500元的奖励。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即进入监狱并停留一回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾到300元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴纳每块地产300元税金。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营不善，每位拥有运输业戴尔玩家失去300元。（大陆运输、大洋运输、航空运输）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名慈善家资助，每位玩家可以立即免费赎回一块地产。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营不善，拥有污水处理厂的玩家失去300元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体玩家参加狂欢节，在你下次行动结束前，所有玩家移动式都变为后退。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府公开补助土地最少者500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生灵异事件，在你下次行动结束前，所有玩家都无需支付任何费用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年一遇特大暴雨，所有玩家原地停留一回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资项目分红，距离证券中心最近的玩家获得500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会发放福利，每位玩家获得1000元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有玩家缴纳个人所得税，每块地产300元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营不善，拥有核能发电站的玩家失去300元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营不善，拥有建筑公司将自己的一个地产下降一级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买最新款私人坐骑，支付400元并立即额外进行一回合的行动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即移动到你右手边玩家的位置，并按该格效果结算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在香港乘坐豪华游轮，你可以选择支付1000元并吉利移动至起点领取奖励。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往九寨沟旅游，支付500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑历史被查，立即移动至监狱并停留一回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外获得遗产，获得600元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即移动到你左右边玩家的位置，并按该格效果结算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票刮奖中奖，获得400元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜入银行相同内部，从每位玩家受众获取300元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一期间疯狂消费，支付300元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会主义春风吹过，你可以立即免费升级一块地产。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗失钱包，你失去300元，位于你后方的第一位玩家获得300元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>钓鱼岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大洋运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当任何人走到运气和新闻时，你获得500元奖励。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>污水处理厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取500元，若对方每拥有3块地产，额外收取500元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取1张新闻卡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取1张运气卡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过时领取奖励4000元，若刚好到达起点，可将自己任意一处地产升一级（仍需支付升级费用）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当玩家升级地产时，获得500元。当任意玩家到建筑公司时，可将一处地产升一级（需支付升级费用）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取500元，若对方拥有1级/2级/3级地产，额外收取500/1000/1500元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航空运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证券中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得500元，然后额外获得你拥有投资项目数量*500元的奖励。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入狱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即进入监狱并停留一回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾到300元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴纳每块地产300元税金。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营不善，每位拥有运输业戴尔玩家失去300元。（大陆运输、大洋运输、航空运输）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无名慈善家资助，每位玩家可以立即免费赎回一块地产。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营不善，拥有污水处理厂的玩家失去300元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体玩家参加狂欢节，在你下次行动结束前，所有玩家移动式都变为后退。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府公开补助土地最少者500元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生灵异事件，在你下次行动结束前，所有玩家都无需支付任何费用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百年一遇特大暴雨，所有玩家原地停留一回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资项目分红，距离证券中心最近的玩家获得500元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会发放福利，每位玩家获得1000元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有玩家缴纳个人所得税，每块地产300元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营不善，拥有核能发电站的玩家失去300元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营不善，拥有建筑公司将自己的一个地产下降一级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买最新款私人坐骑，支付400元并立即额外进行一回合的行动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即移动到你右手边玩家的位置，并按该格效果结算。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在香港乘坐豪华游轮，你可以选择支付1000元并吉利移动至起点领取奖励。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往九寨沟旅游，支付500元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑历史被查，立即移动至监狱并停留一回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意外获得遗产，获得600元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即移动到你左右边玩家的位置，并按该格效果结算。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票刮奖中奖，获得400元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜入银行相同内部，从每位玩家受众获取300元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一期间疯狂消费，支付300元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会主义春风吹过，你可以立即免费升级一块地产。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗失钱包，你失去300元，位于你后方的第一位玩家获得300元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public</t>
+  </si>
+  <si>
+    <t>新闻1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,13 +743,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -776,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
@@ -787,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -920,10 +923,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -931,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -966,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1001,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
         <v>4000</v>
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1021,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1056,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1067,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1102,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1137,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1">
         <v>3000</v>
@@ -1149,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1157,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -1192,10 +1195,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1203,7 +1206,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1238,7 +1241,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" s="1">
         <v>3500</v>
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1258,7 +1261,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1293,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -1328,10 +1331,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1339,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -1374,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -1409,10 +1412,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
@@ -1420,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="1">
         <v>3000</v>
@@ -1432,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1440,10 +1443,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1451,7 +1454,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -1486,7 +1489,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -1521,10 +1524,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1532,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -1567,7 +1570,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H32" s="1">
         <v>3500</v>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1587,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -1622,7 +1625,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>5</v>
@@ -1657,7 +1660,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H35" s="1">
         <v>3000</v>
@@ -1669,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -1677,7 +1680,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -1712,10 +1715,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1723,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>6</v>
@@ -1758,10 +1761,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -1769,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -1804,7 +1807,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -1853,67 +1856,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1934,67 +1937,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
